--- a/extracted_banners.xlsx
+++ b/extracted_banners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="2438">
   <si>
     <t>https://www.policygenius.com/blog/week-animal-news-butts-exercise-wheels-anderson-pooper</t>
   </si>
@@ -64,7 +64,7 @@
     <t>[banner-lifequote],[banner-lifeguide],[widget-life-insurance]</t>
   </si>
   <si>
-    <t>https://www.policygenius.com/blog/37</t>
+    <t>https://www.policygenius.com/blog/</t>
   </si>
   <si>
     <t>[banner-life-toilet],[banner-life-easiest],[banner-life-cheaper],[banner-life-protect]</t>
@@ -787,7 +787,7 @@
     <t>https://www.policygenius.com/blog/17-news-podcasts-to-keep-you-informed</t>
   </si>
   <si>
-    <t>[banner-checkup],[banner-lifeguide],[recommended-posts ids="5478,155317,155215"]</t>
+    <t>[banner-checkup],[banner-lifeguide],[recommended-posts ids="155649,155317,155215"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/googles-7-best-april-fools-day-hoaxes</t>
@@ -1861,7 +1861,7 @@
     <t>https://www.policygenius.com/blog/meet-earnest-review-refinance-student-loans</t>
   </si>
   <si>
-    <t>[recommended-posts ids="4918,140904,4495"]</t>
+    <t>[banner-1-earnest-student-loan-refinance],[banner-2-earnest-student-loan-refinance],[recommended-posts ids="4918,140904,4495"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/can-you-afford-to-have-another-child</t>
@@ -2083,7 +2083,7 @@
     <t>https://www.policygenius.com/blog/4-huge-financial-mistakes-i-made-in-my-twenties</t>
   </si>
   <si>
-    <t>[banner-checkup],[banner-ltdquote],[recommended-posts ids="141060,140904,139179"],[widget-life-insurance]</t>
+    <t>[banner-checkup],[banner-ltdquote],[banner-1-earnest-student-loan-refinance],[recommended-posts ids="141060,140904,139179"],[widget-life-insurance]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/how-your-pet-insurance-policy-determines-what-you-pay-your-vet</t>
@@ -3856,7 +3856,7 @@
     <t>https://www.policygenius.com/blog/what-to-look-for-in-an-internship</t>
   </si>
   <si>
-    <t>[banner-rentersquote],[banner-rentersguide],[recommended-posts ids="3175,5331,140231"]</t>
+    <t>[banner-rentersquote],[banner-1-earnest-student-loan-refinance],[banner-rentersguide],[recommended-posts ids="3175,5331,140231"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/smart-home-dumb-risk</t>
@@ -4171,7 +4171,7 @@
     <t>https://www.policygenius.com/blog/what-happens-to-my-student-loan-debt-if-i-die</t>
   </si>
   <si>
-    <t>[banner-lifequote],[recommended-posts ids="142111,4918,5207"],[widget-life-insurance]</t>
+    <t>[banner-lifequote],[banner-1-earnest-student-loan-refinance],[recommended-posts ids="142111,4918,5207"],[widget-life-insurance]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/how-to-prepare-to-apply-for-financial-aid</t>
@@ -4228,7 +4228,7 @@
     <t>https://www.policygenius.com/blog/the-best-credit-card-for-new-grads</t>
   </si>
   <si>
-    <t>[Banner-Payoff],[recommended-posts ids="142111,147152,3732"],[widget-life-insurance]</t>
+    <t>[banner-1-earnest-student-loan-refinance],[banner-2-earnest-student-loan-refinance],[Banner-Payoff],[recommended-posts ids="142111,147152,3732"],[widget-life-insurance]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/how-to-discuss-money-with-your-kids</t>
@@ -4783,7 +4783,7 @@
     <t>https://www.policygenius.com/blog/student-loans-year-one-timeline</t>
   </si>
   <si>
-    <t>[banner-checkup],[Banner-Payoff],[recommended-posts ids="142111,148422,4918"]</t>
+    <t>[banner-2-earnest-student-loan-refinance],[banner-checkup],[Banner-Payoff],[recommended-posts ids="142111,148422,4918"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/new-parents-sleep-deprivation-guide</t>
@@ -4807,7 +4807,7 @@
     <t>https://www.policygenius.com/blog/student-loan-aid-workplace-employer-benefit-millennial</t>
   </si>
   <si>
-    <t>[banner-checkup],[recommended-posts ids="4918,139179,149826"],[widget-life-insurance]</t>
+    <t>[banner-1-earnest-student-loan-refinance],[banner-checkup],[recommended-posts ids="4918,139179,149826"],[widget-life-insurance]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/switch-jobs-401k-options</t>
@@ -4840,7 +4840,7 @@
     <t>https://www.policygenius.com/blog/want-to-save-money-pay-off-your-student-loan-interest-in-college</t>
   </si>
   <si>
-    <t>[banner-checkup],[banner-rentersquote],[recommended-posts ids="4416,139179,142111"],[recommended-posts ids="142865,143108,146273"]</t>
+    <t>[banner-checkup],[banner-rentersquote],[banner-1-earnest-student-loan-refinance],[recommended-posts ids="4416,139179,142111"],[recommended-posts ids="142865,143108,146273"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/smoking-history-life-insurance-rates</t>
@@ -4864,7 +4864,7 @@
     <t>https://www.policygenius.com/blog/solving-americas-student-loan-crisis</t>
   </si>
   <si>
-    <t>[recommended-posts ids="150240,150293,142111"]</t>
+    <t>[banner-2-earnest-student-loan-refinance],[recommended-posts ids="150240,150293,142111"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/how-to-monitor-your-teens-bank-account</t>
@@ -4876,7 +4876,7 @@
     <t>https://www.policygenius.com/blog/student-loan-debt-moving-to-another-country</t>
   </si>
   <si>
-    <t>[banner-checkup],[recommended-posts ids="150293,150402,150240"]</t>
+    <t>[banner-checkup],[banner-2-earnest-student-loan-refinance],[recommended-posts ids="150293,150402,150240"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/how-to-maximize-credit-card-rewards</t>
@@ -4927,7 +4927,7 @@
     <t>https://www.policygenius.com/blog/marijuana-life-insurance-drug-test</t>
   </si>
   <si>
-    <t>[banner-lifequote],[recommended-posts ids="147590,6129,140892"],[widget-life-insurance]</t>
+    <t>[banner-lifequote\],[recommended-posts ids="147590,6129,140892"],[widget-life-insurance]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/life-insurance-student-loans-graduation</t>
@@ -5002,7 +5002,7 @@
     <t>https://www.policygenius.com/blog/side-hustles-for-college-students</t>
   </si>
   <si>
-    <t>[banner-rentersquote],[recommended-posts ids="140616,140904,150365"]</t>
+    <t>[banner-1-earnest-student-loan-refinance],[banner-rentersquote],[recommended-posts ids="140616,140904,150365"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/free-credit-report-dispute-mistakes</t>
@@ -5368,13 +5368,13 @@
     <t>https://www.policygenius.com/blog/save-for-retirement-or-pay-off-student-loans</t>
   </si>
   <si>
-    <t>[banner-life-toilet],[recommended-posts ids="150293,142111,150428"]</t>
+    <t>[banner-2-earnest-student-loan-refinance],[banner-life-toilet],[recommended-posts ids="150293,142111,150428"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/roth-ira-millennial-retirement-savings</t>
   </si>
   <si>
-    <t>[banner-life-toilet],[recommended-posts ids="143539,5934,146074"]</t>
+    <t>[banner-2-earnest-student-loan-refinance],[banner-life-toilet],[recommended-posts ids="143539,5934,146074"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/health-insurance-shopping-literacy-survey</t>
@@ -5398,7 +5398,7 @@
     <t>https://www.policygenius.com/blog/refinance-or-consolidate-student-loans</t>
   </si>
   <si>
-    <t>[banner-lifeguide],[recommended-posts ids="4918,4416,149336"],[widget-life-insurance]</t>
+    <t>[banner-lifeguide],[banner-2-earnest-student-loan-refinance],[recommended-posts ids="4918,4416,149336"],[widget-life-insurance]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/3-tips-for-tackling-holiday-gift-budgets-with-relatives</t>
@@ -5467,7 +5467,7 @@
     <t>https://www.policygenius.com/blog/how-a-science-fiction-writer-plans-for-retirement</t>
   </si>
   <si>
-    <t>[banner-HIeasy],[recommended-posts ids="151419,142221,144623"],[widget-life-insurance]</t>
+    <t>[banner-HIeasy],[banner-2-earnest-student-loan-refinance],[recommended-posts ids="151419,142221,144623"],[widget-life-insurance]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/marriage-and-money-5-financial-mistakes-couples-make-in-the-first-5-years</t>
@@ -6787,7 +6787,7 @@
     <t>https://www.policygenius.com/blog/fafsa-financial-aid-guide</t>
   </si>
   <si>
-    <t>[recommended-posts ids="153636,150428,142111"]</t>
+    <t>[banner-1-earnest-student-loan-refinance],[banner-2-earnest-student-loan-refinance],[recommended-posts ids="153636,150428,142111"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/wills-trusts-estate-planning-101</t>
@@ -6886,7 +6886,7 @@
     <t>https://www.policygenius.com/blog/student-loan-public-service-loan-forgiveness</t>
   </si>
   <si>
-    <t>[recommended-posts ids="150428,153238,142111"]</t>
+    <t>[banner-1-earnest-student-loan-refinance],[banner-2-earnest-student-loan-refinance],[recommended-posts ids="150428,153238,142111"]</t>
   </si>
   <si>
     <t>https://www.policygenius.com/blog/weekend-reads-food-imaging-microchips</t>
@@ -7247,6 +7247,87 @@
   </si>
   <si>
     <t>https://www.policygenius.com/blog/weekend-reads-career-google-millionaires</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/5-risky-loans-to-avoid-at-all-costs</t>
+  </si>
+  <si>
+    <t>[banner-ltdguide],[banner-life-toilet],[recommended-posts ids="143202,154869,145468"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/how-to-start-a-business-and-get-funding-when-you-have-bad-credit</t>
+  </si>
+  <si>
+    <t>[banner-lifequote],[banner-life-easiest],[recommended-posts ids="155334,145895,147752"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/life-insurance-urine-tests</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/weekend-reads-pottery-barn-pop-songs-casual-dining</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/not-reading-the-fine-print-can-cost-you-big-time</t>
+  </si>
+  <si>
+    <t>[banner-ltdquote],[banner-life-protect],[recommended-posts ids="154373,153408,4365"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/accelerated-underwriting-life-insurance-for-dads</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/how-minimum-payments-keep-you-stuck-in-debt-and-what-to-do-about-it</t>
+  </si>
+  <si>
+    <t>[banner-checkup],[banner-life-cheaper],[recommended-posts ids="154479,155352,143516"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/10-car-insurance-hacks-to-help-you-save-money</t>
+  </si>
+  <si>
+    <t>[recommended-posts ids="155127,150488,154968"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/do-you-need-non-owner-car-insurance</t>
+  </si>
+  <si>
+    <t>[banner-HIplans],[Banner-Liberty-Auto-Ad],[recommended-posts ids="145929,149235,155732"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/when-you-should-and-shouldnt-bundle-your-insurance</t>
+  </si>
+  <si>
+    <t>[banner-lifequote],[banner-life-easiest],[recommended-posts ids="155732,155655,150455"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/5-ways-pmi-can-work-in-your-favor</t>
+  </si>
+  <si>
+    <t>[banner-checkup],[banner-life-toilet],[recommended-posts ids="147633,154816,153023"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/a-quick-guide-to-updating-your-insurance-during-a-divorce</t>
+  </si>
+  <si>
+    <t>[banner-ltdguide],[banner-HIeasy],[recommended-posts ids="147538,146064,147094"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/weekend-reads-british-baking-blood-transfusions-financial-fitness</t>
+  </si>
+  <si>
+    <t>[banner-life-toilet]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/do-i-need-special-road-trip-car-insurance</t>
+  </si>
+  <si>
+    <t>[banner-lifequote],[Banner-Liberty-Auto-Ad],[recommended-posts ids="144746,155763,144456"],[widget-life-insurance]</t>
+  </si>
+  <si>
+    <t>https://www.policygenius.com/blog/what-to-do-when-you-get-in-a-fender-bender</t>
+  </si>
+  <si>
+    <t>[banner-HIproviders],[Banner-Liberty-Auto-Ad],[recommended-posts ids="146631,156165,156153"],[widget-life-insurance]</t>
   </si>
 </sst>
 </file>
@@ -7587,7 +7668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1303"/>
+  <dimension ref="A1:B1318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18015,6 +18096,126 @@
       </c>
       <c r="B1303" t="s">
         <v>2183</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2">
+      <c r="A1304" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2">
+      <c r="A1305" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2">
+      <c r="A1306" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2">
+      <c r="A1307" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2">
+      <c r="A1308" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2">
+      <c r="A1309" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2">
+      <c r="A1310" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2">
+      <c r="A1311" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2">
+      <c r="A1312" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2">
+      <c r="A1313" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2">
+      <c r="A1314" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2">
+      <c r="A1315" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2">
+      <c r="A1316" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2">
+      <c r="A1317" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2">
+      <c r="A1318" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2437</v>
       </c>
     </row>
   </sheetData>
@@ -19322,6 +19523,21 @@
     <hyperlink ref="A1301" r:id="rId1301"/>
     <hyperlink ref="A1302" r:id="rId1302"/>
     <hyperlink ref="A1303" r:id="rId1303"/>
+    <hyperlink ref="A1304" r:id="rId1304"/>
+    <hyperlink ref="A1305" r:id="rId1305"/>
+    <hyperlink ref="A1306" r:id="rId1306"/>
+    <hyperlink ref="A1307" r:id="rId1307"/>
+    <hyperlink ref="A1308" r:id="rId1308"/>
+    <hyperlink ref="A1309" r:id="rId1309"/>
+    <hyperlink ref="A1310" r:id="rId1310"/>
+    <hyperlink ref="A1311" r:id="rId1311"/>
+    <hyperlink ref="A1312" r:id="rId1312"/>
+    <hyperlink ref="A1313" r:id="rId1313"/>
+    <hyperlink ref="A1314" r:id="rId1314"/>
+    <hyperlink ref="A1315" r:id="rId1315"/>
+    <hyperlink ref="A1316" r:id="rId1316"/>
+    <hyperlink ref="A1317" r:id="rId1317"/>
+    <hyperlink ref="A1318" r:id="rId1318"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
